--- a/writing/output_table.xlsx
+++ b/writing/output_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8d6885615144605/Documents/Duncan_Lab_2018/NHANES_WeightPerception/NHANES_wt/writing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Duncan_Lab_2018\NHANES_WeightPerception\NHANES_wt\writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{99532695-E0D3-48AB-92F2-BE3145F0693E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9D48FBE9-0EFA-4D03-9A19-D9C10FDA8F45}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="8_{99532695-E0D3-48AB-92F2-BE3145F0693E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0167669F-0ACD-4E39-A0D4-AC49C61CA2B0}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="2197" windowWidth="16875" windowHeight="11535" xr2:uid="{64D5762E-E7CA-4964-B70E-AD8288C837C3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{64D5762E-E7CA-4964-B70E-AD8288C837C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="130">
   <si>
     <t>Like to Weigh Less</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Unadjusted OR (95% CI)</t>
   </si>
   <si>
-    <t>Adjusted OR (95% CI)</t>
-  </si>
-  <si>
     <t>Binge Drinking</t>
   </si>
   <si>
@@ -96,12 +93,6 @@
     <t>BMI category</t>
   </si>
   <si>
-    <t>-0.707 (0.0057)</t>
-  </si>
-  <si>
-    <t>0.7403 (0.0051)</t>
-  </si>
-  <si>
     <t>0.1755*</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>** = Kendall's Tau</t>
   </si>
   <si>
-    <t>others are polychoric</t>
-  </si>
-  <si>
     <t>1.34 ( 1.09 - 1.64 )</t>
   </si>
   <si>
@@ -265,13 +253,184 @@
   </si>
   <si>
     <t>1.21 ( 0.71 - 2.04 )</t>
+  </si>
+  <si>
+    <t>Fully Adjusted OR (95% CI)</t>
+  </si>
+  <si>
+    <t>1.35 (1.08 - 1.70)</t>
+  </si>
+  <si>
+    <t>1.32 (1.20 - 1.44)</t>
+  </si>
+  <si>
+    <t>2.29 (1.93 - 2.72)</t>
+  </si>
+  <si>
+    <t>0.75 (0.69 - 0.82)</t>
+  </si>
+  <si>
+    <t>1.55 (1.22 - 1.98)</t>
+  </si>
+  <si>
+    <t>1.20 (1.08 - 1.34)</t>
+  </si>
+  <si>
+    <t>2.14 (1.78 - 2.57)</t>
+  </si>
+  <si>
+    <t>0.82 (0.74 - 0.91)</t>
+  </si>
+  <si>
+    <t>1.59 (1.17 - 2.15)</t>
+  </si>
+  <si>
+    <t>1.27 (1.09 - 1.47)</t>
+  </si>
+  <si>
+    <t>1.69 (1.33 - 2.14)</t>
+  </si>
+  <si>
+    <t>0.97 (0.85 - 1.12)</t>
+  </si>
+  <si>
+    <t>1.31 (1.19 - 1.45)</t>
+  </si>
+  <si>
+    <t>1.20 (0.98 - 1.46)</t>
+  </si>
+  <si>
+    <t>0.66 (0.61 - 0.73)</t>
+  </si>
+  <si>
+    <t>2.02 (1.74 - 2.34)</t>
+  </si>
+  <si>
+    <t>1.19 (1.06 - 1.34)</t>
+  </si>
+  <si>
+    <t>1.36 (1.10 - 1.67)</t>
+  </si>
+  <si>
+    <t>0.67 (0.60 - 0.74)</t>
+  </si>
+  <si>
+    <t>1.98 (1.70 - 2.31)</t>
+  </si>
+  <si>
+    <t>1.44 (1.23 - 1.69)</t>
+  </si>
+  <si>
+    <t>1.38 (1.06 - 1.81)</t>
+  </si>
+  <si>
+    <t>0.87 (0.76 - 1.00)</t>
+  </si>
+  <si>
+    <t>1.53 (1.26 - 1.87)</t>
+  </si>
+  <si>
+    <t>1.19 (1.05 - 1.36)</t>
+  </si>
+  <si>
+    <t>1.40 (1.14 - 1.71)</t>
+  </si>
+  <si>
+    <t>1.05 (1.02 - 1.17)</t>
+  </si>
+  <si>
+    <t>1.05 (0.90 - 1.23)</t>
+  </si>
+  <si>
+    <t>0.70 (0.62 - 0.80)</t>
+  </si>
+  <si>
+    <t>1.70 (1.43 - 2.00)</t>
+  </si>
+  <si>
+    <t>0.45 (0.41 - 0.50)</t>
+  </si>
+  <si>
+    <t>0.52 (0.45 - 0.61)</t>
+  </si>
+  <si>
+    <t>1.09 (0.95 - 1.25)</t>
+  </si>
+  <si>
+    <t>1.36 (1.11 - 1.68)</t>
+  </si>
+  <si>
+    <t>0.97 (0.87 - 1.08)</t>
+  </si>
+  <si>
+    <t>1.03 (0.88 - 1.21)</t>
+  </si>
+  <si>
+    <t>0.76 (0.66 - 0.87)</t>
+  </si>
+  <si>
+    <t>1.72 (1.45 - 2.03)</t>
+  </si>
+  <si>
+    <t>0.49 (0.44 - 0.54)</t>
+  </si>
+  <si>
+    <t>0.54 (0.46 - 0.63)</t>
+  </si>
+  <si>
+    <t>1.28 (1.07 - 1.53)</t>
+  </si>
+  <si>
+    <t>1.19 (0.89 - 1.58)</t>
+  </si>
+  <si>
+    <t>1.16 (1.00 - 1.34)</t>
+  </si>
+  <si>
+    <t>0.99 (0.81 - 1.23)</t>
+  </si>
+  <si>
+    <t>0.90 (0.76 - 1.05)</t>
+  </si>
+  <si>
+    <t>1.37 (1.10 - 1.70)</t>
+  </si>
+  <si>
+    <t>0.69 (0.60 - 0.78)</t>
+  </si>
+  <si>
+    <t>0.68 (0.56 - 0.84)</t>
+  </si>
+  <si>
+    <t>-0.3195 (0.009)</t>
+  </si>
+  <si>
+    <t>0.7403 (0.005)</t>
+  </si>
+  <si>
+    <t>0.4478 (0.009)</t>
+  </si>
+  <si>
+    <t>-0.8913 (0.003)</t>
+  </si>
+  <si>
+    <t>POLYCHORIC CORRELATION MATRIC</t>
+  </si>
+  <si>
+    <t>-0.7071 (0.006)</t>
+  </si>
+  <si>
+    <t>-0.3750 (0.009)</t>
+  </si>
+  <si>
+    <t>Fully adjusted = for age, sex, race, income, education, martial status, and depression (except in depression model)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +456,29 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -325,13 +507,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -346,6 +525,32 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,381 +866,663 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3A7413-4131-4451-95C3-F62128B9AAFB}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24.265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.53125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.9296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.53125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.9296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.46484375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.06640625" style="2"/>
-    <col min="13" max="13" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.06640625" style="2"/>
+    <col min="6" max="6" width="22.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.06640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.06640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.19921875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="M1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="4" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H5" s="13"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H8" s="13"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G14" s="15"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="9"/>
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G20" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B23" s="6"/>
+      <c r="G21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="76.900000000000006" x14ac:dyDescent="0.45">
+      <c r="J27" s="19" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53F5B2A-72BC-48DB-B075-46F5B78F74C9}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.9296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/writing/output_table.xlsx
+++ b/writing/output_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Duncan_Lab_2018\NHANES_WeightPerception\NHANES_wt\writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="290" documentId="8_{99532695-E0D3-48AB-92F2-BE3145F0693E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0167669F-0ACD-4E39-A0D4-AC49C61CA2B0}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="6_{03D0DEFD-52F6-4D61-A622-CADF2106CD86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{938FF292-4509-478D-A0C9-D19593BA2672}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{64D5762E-E7CA-4964-B70E-AD8288C837C3}"/>
+    <workbookView xWindow="3870" yWindow="2175" windowWidth="16875" windowHeight="11535" xr2:uid="{64D5762E-E7CA-4964-B70E-AD8288C837C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -111,150 +111,9 @@
     <t>** = Kendall's Tau</t>
   </si>
   <si>
-    <t>1.34 ( 1.09 - 1.64 )</t>
-  </si>
-  <si>
-    <t>0.98 ( 0.77 - 1.24 )</t>
-  </si>
-  <si>
-    <t>2.68 ( 1.97 - 3.66 )</t>
-  </si>
-  <si>
-    <t>2.79 ( 2.04 - 3.83 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.72 ( 1.46 - 2.02 )</t>
-  </si>
-  <si>
-    <t>1.54 ( 1.26 - 1.88 )</t>
-  </si>
-  <si>
-    <t>1.34 ( 1.11 - 1.62 )</t>
-  </si>
-  <si>
-    <t>2.89 ( 2.23 - 3.76 )</t>
-  </si>
-  <si>
-    <t>2.92 ( 2.24 - 3.81 )</t>
-  </si>
-  <si>
-    <t>0.92 ( 0.77 - 1.11 )</t>
-  </si>
-  <si>
-    <t>1.80 ( 1.29 - 2.51 )</t>
-  </si>
-  <si>
-    <t>1.94 ( 1.42 - 2.65 )</t>
-  </si>
-  <si>
-    <t>1.36 ( 1.11 - 1.66 )</t>
-  </si>
-  <si>
-    <t>0.53 ( 0.36 - 0.77 )</t>
-  </si>
-  <si>
-    <t>1.06 ( 0.88 - 1.27 )</t>
-  </si>
-  <si>
     <t>BMI Adjusted OR (95% CI)</t>
   </si>
   <si>
-    <t>0.97 ( 0.73 - 1.29 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.06 ( 0.85 - 1.32 )</t>
-  </si>
-  <si>
-    <t>1.17 ( 0.95 - 1.45 )</t>
-  </si>
-  <si>
-    <t>1.90 ( 1.38 - 2.62 )</t>
-  </si>
-  <si>
-    <t>2.77 ( 1.99 - 3.85 )</t>
-  </si>
-  <si>
-    <t>0.83 ( 0.58 - 1.19 )</t>
-  </si>
-  <si>
-    <t>0.93 ( 0.63 - 1.37 )</t>
-  </si>
-  <si>
-    <t>0.92 ( 0.56 - 1.49 )</t>
-  </si>
-  <si>
-    <t>1.39 ( 1.14 - 1.70 )</t>
-  </si>
-  <si>
-    <t>1.01 ( 0.75 - 1.36 )</t>
-  </si>
-  <si>
-    <t>0.96 ( 0.71 - 1.30 )</t>
-  </si>
-  <si>
-    <t>1.01 ( 0.64 - 1.59 )</t>
-  </si>
-  <si>
-    <t>2.15 ( 1.51 - 3.07 )</t>
-  </si>
-  <si>
-    <t>1.49 ( 1.05 - 2.11 )</t>
-  </si>
-  <si>
-    <t>1.66 ( 1.16 - 2.37 )</t>
-  </si>
-  <si>
-    <t>1.18 ( 0.75 - 1.86 )</t>
-  </si>
-  <si>
-    <t>1.32 ( 1.07 - 1.63 )</t>
-  </si>
-  <si>
-    <t>0.88 ( 0.73 - 1.07 )</t>
-  </si>
-  <si>
-    <t>1.01 ( 0.81 - 1.26 )</t>
-  </si>
-  <si>
-    <t>1.24 ( 0.96 - 1.60 )</t>
-  </si>
-  <si>
-    <t>2.32 ( 1.75 - 3.07 )</t>
-  </si>
-  <si>
-    <t>1.09 ( 0.76 - 1.57 )</t>
-  </si>
-  <si>
-    <t>1.09 ( 0.76 - 1.56 )</t>
-  </si>
-  <si>
-    <t>1.61 ( 1.04 - 2.49 )</t>
-  </si>
-  <si>
-    <t>1.03 ( 0.81 - 1.29 )</t>
-  </si>
-  <si>
-    <t>0.91 ( 0.72 - 1.14 )</t>
-  </si>
-  <si>
-    <t>0.94 ( 0.75 - 1.16 )</t>
-  </si>
-  <si>
-    <t>1.08 ( 0.81 - 1.45 )</t>
-  </si>
-  <si>
-    <t>0.61 ( 0.40 - 0.93 )</t>
-  </si>
-  <si>
-    <t>1.41 ( 0.97 - 2.05 )</t>
-  </si>
-  <si>
-    <t>1.36 ( 0.92 - 2.00 )</t>
-  </si>
-  <si>
-    <t>1.21 ( 0.71 - 2.04 )</t>
-  </si>
-  <si>
     <t>Fully Adjusted OR (95% CI)</t>
   </si>
   <si>
@@ -424,6 +283,147 @@
   </si>
   <si>
     <t>Fully adjusted = for age, sex, race, income, education, martial status, and depression (except in depression model)</t>
+  </si>
+  <si>
+    <t>1.34 (1.09 - 1.64)</t>
+  </si>
+  <si>
+    <t>0.98 (0.77 - 1.24)</t>
+  </si>
+  <si>
+    <t>0.97 (0.73 - 1.29)</t>
+  </si>
+  <si>
+    <t>1.80 (1.29 - 2.51)</t>
+  </si>
+  <si>
+    <t>1.94 (1.42 - 2.65)</t>
+  </si>
+  <si>
+    <t>2.15 (1.51 - 3.07)</t>
+  </si>
+  <si>
+    <t>2.68 (1.97 - 3.66)</t>
+  </si>
+  <si>
+    <t>2.79 (2.04 - 3.83)</t>
+  </si>
+  <si>
+    <t>2.77 (1.99 - 3.85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.72 (1.46 - 2.02)</t>
+  </si>
+  <si>
+    <t>1.36 (1.11 - 1.66)</t>
+  </si>
+  <si>
+    <t>1.32 (1.07 - 1.63)</t>
+  </si>
+  <si>
+    <t>1.54 (1.26 - 1.88)</t>
+  </si>
+  <si>
+    <t>1.34 (1.11 - 1.62)</t>
+  </si>
+  <si>
+    <t>1.39 (1.14 - 1.70)</t>
+  </si>
+  <si>
+    <t>2.89 (2.23 - 3.76)</t>
+  </si>
+  <si>
+    <t>2.92 (2.24 - 3.81)</t>
+  </si>
+  <si>
+    <t>2.32 (1.75 - 3.07)</t>
+  </si>
+  <si>
+    <t>1.06 (0.88 - 1.27)</t>
+  </si>
+  <si>
+    <t>0.92 (0.77 - 1.11)</t>
+  </si>
+  <si>
+    <t>1.03 (0.81 - 1.29)</t>
+  </si>
+  <si>
+    <t>0.53 (0.36 - 0.77)</t>
+  </si>
+  <si>
+    <t>0.61 (0.40 - 0.93)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.07 (0.90 - 1.28)</t>
+  </si>
+  <si>
+    <t>1.17 (0.99 - 1.40)</t>
+  </si>
+  <si>
+    <t>1.81 (1.38 - 2.39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.38 (1.03 - 1.86)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.58 (1.16 - 2.15)</t>
+  </si>
+  <si>
+    <t>1.15 (0.74 - 1.77)</t>
+  </si>
+  <si>
+    <t>0.79 (0.55 - 1.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.89 (0.60 - 1.31)</t>
+  </si>
+  <si>
+    <t>0.93 (0.56 - 1.53)</t>
+  </si>
+  <si>
+    <t>0.90 (0.77 - 1.06)</t>
+  </si>
+  <si>
+    <t>1.03 (0.84 - 1.26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.28 (1.03 - 1.59)</t>
+  </si>
+  <si>
+    <t>1.03 (0.78 - 1.37)</t>
+  </si>
+  <si>
+    <t>0.98 (0.73 - 1.30)</t>
+  </si>
+  <si>
+    <t>1.05 (0.68 - 1.62)</t>
+  </si>
+  <si>
+    <t>1.16 (0.83 - 1.61)</t>
+  </si>
+  <si>
+    <t>1.14 (0.83 - 1.56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.52 (1.06 - 2.19)</t>
+  </si>
+  <si>
+    <t>0.96 (0.77 - 1.20)</t>
+  </si>
+  <si>
+    <t>0.98 (0.79 - 1.21)</t>
+  </si>
+  <si>
+    <t>1.12 (0.86 - 1.47)</t>
+  </si>
+  <si>
+    <t>1.47 (1.05 - 2.07)</t>
+  </si>
+  <si>
+    <t>1.42 (1.00 - 2.01)</t>
+  </si>
+  <si>
+    <t>1.21 (0.76 - 1.92)</t>
   </si>
 </sst>
 </file>
@@ -517,17 +517,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -551,6 +545,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3A7413-4131-4451-95C3-F62128B9AAFB}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
@@ -890,468 +890,484 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>25</v>
+      <c r="B3" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="G3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="11"/>
+      <c r="B4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="H5" s="13"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="14"/>
+      <c r="B6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>81</v>
+      <c r="B7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="14"/>
+        <v>38</v>
+      </c>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="H8" s="13"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" s="11"/>
+      <c r="B9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="11"/>
+      <c r="B10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11" s="11"/>
+      <c r="H11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="15" t="s">
+      <c r="B12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="11"/>
+      <c r="F12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G14" s="15"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="F15" s="8" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="F15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>73</v>
+      <c r="C16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>94</v>
+      <c r="H17" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>56</v>
+      <c r="B18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>95</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>82</v>
+      <c r="B20" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="B21" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>98</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>114</v>
+        <v>59</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>107</v>
+      <c r="B24" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>100</v>
+      <c r="B25" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>116</v>
+        <v>61</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="27" spans="1:10" ht="76.900000000000006" x14ac:dyDescent="0.45">
-      <c r="J27" s="19" t="s">
-        <v>129</v>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="J27" s="17" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1371,7 +1387,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1455,7 +1471,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -1473,55 +1489,55 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>127</v>
+      <c r="B14" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>123</v>
+      <c r="C15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>122</v>
+      <c r="D16" s="14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>17</v>
       </c>
     </row>

--- a/writing/output_table.xlsx
+++ b/writing/output_table.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Duncan_Lab_2018\NHANES_WeightPerception\NHANES_wt\writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="6_{03D0DEFD-52F6-4D61-A622-CADF2106CD86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{938FF292-4509-478D-A0C9-D19593BA2672}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343F383E-FCE1-40AA-A30A-B5DD76383A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="2175" windowWidth="16875" windowHeight="11535" xr2:uid="{64D5762E-E7CA-4964-B70E-AD8288C837C3}"/>
+    <workbookView xWindow="11213" yWindow="458" windowWidth="10380" windowHeight="12892" activeTab="2" xr2:uid="{64D5762E-E7CA-4964-B70E-AD8288C837C3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Regression" sheetId="1" r:id="rId1"/>
-    <sheet name="Correlations" sheetId="2" r:id="rId2"/>
+    <sheet name="Regression_All" sheetId="1" r:id="rId1"/>
+    <sheet name="Reg_Male" sheetId="3" r:id="rId2"/>
+    <sheet name="Reg_Female" sheetId="4" r:id="rId3"/>
+    <sheet name="Correlations" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="366">
   <si>
     <t>Like to Weigh Less</t>
   </si>
@@ -312,9 +314,6 @@
     <t>2.77 (1.99 - 3.85)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.72 (1.46 - 2.02)</t>
-  </si>
-  <si>
     <t>1.36 (1.11 - 1.66)</t>
   </si>
   <si>
@@ -424,6 +423,717 @@
   </si>
   <si>
     <t>1.21 (0.76 - 1.92)</t>
+  </si>
+  <si>
+    <t>1.72 (1.46 - 2.02)</t>
+  </si>
+  <si>
+    <t>1.53 (1.03 - 2.28)</t>
+  </si>
+  <si>
+    <t>1.66 (1.43 - 1.92)</t>
+  </si>
+  <si>
+    <t>2.45 (1.83 - 3.26)</t>
+  </si>
+  <si>
+    <t>1.03 (0.91 - 1.17)</t>
+  </si>
+  <si>
+    <t>1.64 (1.36 - 1.96)</t>
+  </si>
+  <si>
+    <t>1.55 (1.02 - 2.35)</t>
+  </si>
+  <si>
+    <t>1.09 (0.93 - 1.28)</t>
+  </si>
+  <si>
+    <t>2.04 (1.49 - 2.88)</t>
+  </si>
+  <si>
+    <t>1.29 (1.02 -1.64)</t>
+  </si>
+  <si>
+    <t>1.77 (1.05 - 3.00)</t>
+  </si>
+  <si>
+    <t>1.13 (0.92 - 1.38)</t>
+  </si>
+  <si>
+    <t>1.75 (1.15 - 2.65)</t>
+  </si>
+  <si>
+    <t>1.72 (1.45 - 2.05)</t>
+  </si>
+  <si>
+    <t>1.20 (0.87 - 1.95)</t>
+  </si>
+  <si>
+    <t>2.51 (1.99 - 3.28)</t>
+  </si>
+  <si>
+    <t>1.66 (1.27 - 2.02)</t>
+  </si>
+  <si>
+    <t>1.30 (0.85 - 1.98)</t>
+  </si>
+  <si>
+    <t>0.98 (0.84 - 1.16)</t>
+  </si>
+  <si>
+    <t>2.23 (1.68 - 2.96)</t>
+  </si>
+  <si>
+    <t>1.41 (1.09 - 1.81)</t>
+  </si>
+  <si>
+    <t>1.32 (0.76 - 2.29)</t>
+  </si>
+  <si>
+    <t>1.08 (0.87 - 1.33)</t>
+  </si>
+  <si>
+    <t>2.11 (1.45 - 3.06)</t>
+  </si>
+  <si>
+    <t>1.37 (1.13 - 1.69)</t>
+  </si>
+  <si>
+    <t>1.50 (1.09 - 2.06)</t>
+  </si>
+  <si>
+    <t>1.37 (1.17 - 1.60)</t>
+  </si>
+  <si>
+    <t>1.31 (1.02 - 1.67)</t>
+  </si>
+  <si>
+    <t>0.96 (0.80 - 1.15)</t>
+  </si>
+  <si>
+    <t>1.94 (1.52 - 2.47)</t>
+  </si>
+  <si>
+    <t>0.66 (0.57 - 0.76)</t>
+  </si>
+  <si>
+    <t>0.74 (0.59 - 0.94)</t>
+  </si>
+  <si>
+    <t>1.28 (1.03 - 1.58)</t>
+  </si>
+  <si>
+    <t>1.46 (1.06 - 2.01)</t>
+  </si>
+  <si>
+    <t>1.29 (1.10 - 1.51)</t>
+  </si>
+  <si>
+    <t>1.32 (1.03 - 1.69)</t>
+  </si>
+  <si>
+    <t>1.00 ( 0.83 - 1.20)</t>
+  </si>
+  <si>
+    <t>1.93 (1.51 - 2.47)</t>
+  </si>
+  <si>
+    <t>0.67 (0.58 - 0.79)</t>
+  </si>
+  <si>
+    <t>0.76 (0.60 - 0.96)</t>
+  </si>
+  <si>
+    <t>1.39 (1.00 - 1.69)</t>
+  </si>
+  <si>
+    <t>1.37 (0.90 - 2.09)</t>
+  </si>
+  <si>
+    <t>1.24 (1.01 - 1.53)</t>
+  </si>
+  <si>
+    <t>1.14 (0.82 - 1.57)</t>
+  </si>
+  <si>
+    <t>1.01 (0.80 - 1.28)</t>
+  </si>
+  <si>
+    <t>1.50 (1.09 - 2.07)</t>
+  </si>
+  <si>
+    <t>0.80 (0.67 - 0.97)</t>
+  </si>
+  <si>
+    <t>0.80 (0.59 - 1.09)</t>
+  </si>
+  <si>
+    <t>1.91 ( 1.26 - 2.88 )</t>
+  </si>
+  <si>
+    <t>4.11 ( 2.68 - 6.31 )</t>
+  </si>
+  <si>
+    <t>3.51 ( 2.25 - 5.48 )</t>
+  </si>
+  <si>
+    <t>2.06 ( 1.70 - 2.50 )</t>
+  </si>
+  <si>
+    <t>1.30 ( 1.01 - 1.69 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.28 ( 0.97 - 1.69 )</t>
+  </si>
+  <si>
+    <t>1.59 ( 1.19 - 2.13 )</t>
+  </si>
+  <si>
+    <t>1.27 ( 0.94 - 1.70 )</t>
+  </si>
+  <si>
+    <t>1.31 ( 0.99 - 1.74 )</t>
+  </si>
+  <si>
+    <t>0.71 ( 0.56 - 0.90 )</t>
+  </si>
+  <si>
+    <t>1.28 ( 0.95 - 1.72 )</t>
+  </si>
+  <si>
+    <t>1.18 ( 0.83 - 1.67 )</t>
+  </si>
+  <si>
+    <t>2.89 ( 1.70 - 4.89 )</t>
+  </si>
+  <si>
+    <t>2.85 ( 1.62 - 5.01 )</t>
+  </si>
+  <si>
+    <t>3.04 ( 1.78 - 5.22 )</t>
+  </si>
+  <si>
+    <t>3.06 ( 2.22 - 4.22 )</t>
+  </si>
+  <si>
+    <t>2.94 ( 2.11 - 4.09 )</t>
+  </si>
+  <si>
+    <t>2.24 ( 1.60 - 3.13 )</t>
+  </si>
+  <si>
+    <t>0.93 ( 0.74 - 1.17 )</t>
+  </si>
+  <si>
+    <t>0.77 ( 0.61 - 0.98 )</t>
+  </si>
+  <si>
+    <t>0.86 ( 0.67 - 1.11 )</t>
+  </si>
+  <si>
+    <t>0.43 ( 0.28 - 0.65 )</t>
+  </si>
+  <si>
+    <t>0.44 ( 0.29 - 0.68 )</t>
+  </si>
+  <si>
+    <t>0.54 ( 0.34 - 0.85 )</t>
+  </si>
+  <si>
+    <t>Fully adjusted = for age, race, income, education, martial status, and depression (except in depression model)</t>
+  </si>
+  <si>
+    <t>1.38 (1.22 - 1.56)</t>
+  </si>
+  <si>
+    <t>1.21 (0.91 - 1.61)</t>
+  </si>
+  <si>
+    <t>1.36 (1.16 - 1.58)</t>
+  </si>
+  <si>
+    <t>1.37 (1.01 - 1.84)</t>
+  </si>
+  <si>
+    <t>0.86 (0.74 - 1.00)</t>
+  </si>
+  <si>
+    <t>1.79 (1.41 - 2.26)</t>
+  </si>
+  <si>
+    <t>0.69 (0.61 - 0.78)</t>
+  </si>
+  <si>
+    <t>2.11 (1.69 - 2.63)</t>
+  </si>
+  <si>
+    <t>1.32 (1.08 - 1.61)</t>
+  </si>
+  <si>
+    <t>1.51 (1.03 - 2.21)</t>
+  </si>
+  <si>
+    <t>0.89 (0.74 - 1.08)</t>
+  </si>
+  <si>
+    <t>1.61 (1.19 - 2.16)</t>
+  </si>
+  <si>
+    <t>1.40 (1.23 - 1.60)</t>
+  </si>
+  <si>
+    <t>0.60 (0.54 - 0.68)</t>
+  </si>
+  <si>
+    <t>1.38 (1.18 - 1.60)</t>
+  </si>
+  <si>
+    <t>0.67 (0.58 - 0.78)</t>
+  </si>
+  <si>
+    <t>1.54 (1.25 - 1.89)</t>
+  </si>
+  <si>
+    <t>0.79 (0.65 - 0.94)</t>
+  </si>
+  <si>
+    <t>1.33 (1.04 - 1.69)</t>
+  </si>
+  <si>
+    <t>1.50 (1.24 - 1.82)</t>
+  </si>
+  <si>
+    <t>1.10 (0.86 - 1.41)</t>
+  </si>
+  <si>
+    <t>1.41 (1.02 - 1.92)</t>
+  </si>
+  <si>
+    <t>1.03 (0.82 - 1.31)</t>
+  </si>
+  <si>
+    <t>1.68 (1.40 - 2.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.62 ( 1.18 - 2.21 )</t>
+  </si>
+  <si>
+    <t>1.60 ( 1.12 - 2.29 )</t>
+  </si>
+  <si>
+    <t>1.19 ( 0.82 - 1.72 )</t>
+  </si>
+  <si>
+    <t>1.01 ( 0.74 - 1.38 )</t>
+  </si>
+  <si>
+    <t>1.05 ( 0.76 - 1.44 )</t>
+  </si>
+  <si>
+    <t>0.80 ( 0.57 - 1.13 )</t>
+  </si>
+  <si>
+    <t>1.10 ( 0.83 - 1.44 )</t>
+  </si>
+  <si>
+    <t>1.07 ( 0.76 - 1.52 )</t>
+  </si>
+  <si>
+    <t>1.43 ( 1.00 - 2.07 )</t>
+  </si>
+  <si>
+    <t>2.63 ( 1.88 - 3.68 )</t>
+  </si>
+  <si>
+    <t>2.63 ( 1.78 - 3.88 )</t>
+  </si>
+  <si>
+    <t>2.25 ( 1.43 - 3.52 )</t>
+  </si>
+  <si>
+    <t>1.17 ( 0.80 - 1.72 )</t>
+  </si>
+  <si>
+    <t>1.26 ( 0.84 - 1.90 )</t>
+  </si>
+  <si>
+    <t>1.51 ( 0.95 - 2.42 )</t>
+  </si>
+  <si>
+    <t>2.48 ( 1.63 - 3.79 )</t>
+  </si>
+  <si>
+    <t>2.57 ( 1.68 - 3.93 )</t>
+  </si>
+  <si>
+    <t>2.38 ( 1.59 - 3.56 )</t>
+  </si>
+  <si>
+    <t>0.97 ( 0.65 - 1.45 )</t>
+  </si>
+  <si>
+    <t>1.03 ( 0.68 - 1.56 )</t>
+  </si>
+  <si>
+    <t>1.50 ( 0.91 - 2.47 )</t>
+  </si>
+  <si>
+    <t>0.64 ( 0.33 - 1.22 )</t>
+  </si>
+  <si>
+    <t>0.66 ( 0.35 - 1.26 )</t>
+  </si>
+  <si>
+    <t>0.78 ( 0.36 - 1.68 )</t>
+  </si>
+  <si>
+    <t>1.21 (1.01 - 1.45)</t>
+  </si>
+  <si>
+    <t>1.47 (1.11 - 1.95)</t>
+  </si>
+  <si>
+    <t>0.61 (0.51 - 0.73)</t>
+  </si>
+  <si>
+    <t>1.70 (1.34 - 2.16)</t>
+  </si>
+  <si>
+    <t>1.07 (0.93 - 1.24)</t>
+  </si>
+  <si>
+    <t>0.95 (0.77 - 1.18)</t>
+  </si>
+  <si>
+    <t>0.38 (0.33 - 0.45)</t>
+  </si>
+  <si>
+    <t>0.42 (0.34 - 0.53)</t>
+  </si>
+  <si>
+    <t>1.12 (0.93 - 1.35)</t>
+  </si>
+  <si>
+    <t>1.46 (1.10 - 1.94)</t>
+  </si>
+  <si>
+    <t>0.99 (0.84 - 1.15)</t>
+  </si>
+  <si>
+    <t>0.92 (0.74 - 1.13)</t>
+  </si>
+  <si>
+    <t>0.70 (0.58 - 0.85)</t>
+  </si>
+  <si>
+    <t>1.73 (1.36 - 2.20)</t>
+  </si>
+  <si>
+    <t>0.45 (0.38 - 0.53)</t>
+  </si>
+  <si>
+    <t>0.45 (0.26 - 0.57)</t>
+  </si>
+  <si>
+    <t>1.28 (1.01 - 1.64)</t>
+  </si>
+  <si>
+    <t>1.11 (0.75 - 1.65)</t>
+  </si>
+  <si>
+    <t>1.12 (0.91 - 1.37)</t>
+  </si>
+  <si>
+    <t>0.91 (0.69 - 1.21)</t>
+  </si>
+  <si>
+    <t>0.83 (0.65 - 1.04)</t>
+  </si>
+  <si>
+    <t>1.33 (0.98 - 1.79)</t>
+  </si>
+  <si>
+    <t>0.60 (0.49 - 0.74)</t>
+  </si>
+  <si>
+    <t>0.61 (0.46 - 0.81)</t>
+  </si>
+  <si>
+    <t>Marijuana Use (Ordinal: never, &lt;1 yr, regularly)</t>
+  </si>
+  <si>
+    <t>1.07 (0.91 - 1.26)</t>
+  </si>
+  <si>
+    <t>1.52 (1.13 - 2.06)</t>
+  </si>
+  <si>
+    <t>0.93 (0.82 - 1.05)</t>
+  </si>
+  <si>
+    <t>1.26 (0.92 - 2.00)</t>
+  </si>
+  <si>
+    <t>1.35 (1.14 - 1.61)</t>
+  </si>
+  <si>
+    <t>1.24 (0.95 - 1.88)</t>
+  </si>
+  <si>
+    <t>1.00 (0.86 - 1.17)</t>
+  </si>
+  <si>
+    <t>1.06 (0.82 - 1.37)</t>
+  </si>
+  <si>
+    <t>1.24 (0.98 - 1.56)</t>
+  </si>
+  <si>
+    <t>1.46 (1.04 - 2.07)</t>
+  </si>
+  <si>
+    <t>1.06 (0.88 - 1.29)</t>
+  </si>
+  <si>
+    <t>1.26 (0.86 - 2.15)</t>
+  </si>
+  <si>
+    <t>1.46 (1.22 - 1.74)</t>
+  </si>
+  <si>
+    <t>1.38 (0.98 - 1.94)</t>
+  </si>
+  <si>
+    <t>1.07 (0.92 - 1.26)</t>
+  </si>
+  <si>
+    <t>1.04 (0.80 - 1.36)</t>
+  </si>
+  <si>
+    <t>1.09 (0.84 - 1.42)</t>
+  </si>
+  <si>
+    <t>1.42 (0.90 - 2.23)</t>
+  </si>
+  <si>
+    <t>0.99 (0.82 - 1.19)</t>
+  </si>
+  <si>
+    <t>1.28 (0.71 - 2.34)</t>
+  </si>
+  <si>
+    <t>1.34 (1.10 - 1.62)</t>
+  </si>
+  <si>
+    <t>1.17 (0.78 - 1.75)</t>
+  </si>
+  <si>
+    <t>0.99 (0.82 - 1.20)</t>
+  </si>
+  <si>
+    <t>0.94 (0.68 - 1.29)</t>
+  </si>
+  <si>
+    <t>Marijuana Use (Never/Ever)</t>
+  </si>
+  <si>
+    <t>1.03 (0.99 - 1.07)</t>
+  </si>
+  <si>
+    <t>1.10 (1.02 - 1.19)</t>
+  </si>
+  <si>
+    <t>0.98 (0.94 - 1.02)</t>
+  </si>
+  <si>
+    <t>1.07 (0.97 - 1.18)</t>
+  </si>
+  <si>
+    <t>1.08 (1.04 - 1.13)</t>
+  </si>
+  <si>
+    <t>1.07 (0.98 - 1.15)</t>
+  </si>
+  <si>
+    <t>1.02 (0.97 - 1.06)</t>
+  </si>
+  <si>
+    <t>1.04 (0.96 - 1.12)</t>
+  </si>
+  <si>
+    <t>1.08 (1.02 - 1.14)</t>
+  </si>
+  <si>
+    <t>1.08 (0.99 - 1.17)</t>
+  </si>
+  <si>
+    <t>1.03 (0.97 - 1.08)</t>
+  </si>
+  <si>
+    <t>1.06 (0.95 - 1.18)</t>
+  </si>
+  <si>
+    <t>1.10 (1.06 - 1.15)</t>
+  </si>
+  <si>
+    <t>1.07 (0.99 - 1.16)</t>
+  </si>
+  <si>
+    <t>1.03 (0.99 - 1.08)</t>
+  </si>
+  <si>
+    <t>1.04 (0.95 - 1.12)</t>
+  </si>
+  <si>
+    <t>1.05 (0.99 - 1.11)</t>
+  </si>
+  <si>
+    <t>1.11 (1.01 - 1.23)</t>
+  </si>
+  <si>
+    <t>1.01 (0.96 - 1.06)</t>
+  </si>
+  <si>
+    <t>1.05 (0.93 - 1.19)</t>
+  </si>
+  <si>
+    <t>1.06 (1.02 - 1.11)</t>
+  </si>
+  <si>
+    <t>1.03 (0.95 - 1.13)</t>
+  </si>
+  <si>
+    <t>1.00 (0.95 - 1.05)</t>
+  </si>
+  <si>
+    <t>0.99 (0.91 - 1.07)</t>
+  </si>
+  <si>
+    <t>1.49 (1.17 - 1.89)</t>
+  </si>
+  <si>
+    <t>0.99 (0.87 - 1.14)</t>
+  </si>
+  <si>
+    <t>1.03 (0.91 - 1.18)</t>
+  </si>
+  <si>
+    <t>1.73 (1.39 - 2.16)</t>
+  </si>
+  <si>
+    <t>1.12 (0.92 - 1.37)</t>
+  </si>
+  <si>
+    <t>1.60 (1.21 - 2.12)</t>
+  </si>
+  <si>
+    <t>0.89 (0.77 - 1.02)</t>
+  </si>
+  <si>
+    <t>1.23 (0.97 - 1.56)</t>
+  </si>
+  <si>
+    <t>1.02 (0.86 - 1.21)</t>
+  </si>
+  <si>
+    <t>1.47 (1.15 - 1.88)</t>
+  </si>
+  <si>
+    <t>1.12 (0.95 - 1.32)</t>
+  </si>
+  <si>
+    <t>1.75 (1.38 - 2.23)</t>
+  </si>
+  <si>
+    <t>1.18 (0.95 - 1.45)</t>
+  </si>
+  <si>
+    <t>1.61 (1.21 - 2.13)</t>
+  </si>
+  <si>
+    <t>0.94 (0.81 - 1.10)</t>
+  </si>
+  <si>
+    <t>1.24 (0.97 - 1.59)</t>
+  </si>
+  <si>
+    <t>0.97 (0.80 - 1.19)</t>
+  </si>
+  <si>
+    <t>1.38 (1.08 - 1.78)</t>
+  </si>
+  <si>
+    <t>1.08 (0.89 - 1.30)</t>
+  </si>
+  <si>
+    <t>1.63 (1.25 - 2.13)</t>
+  </si>
+  <si>
+    <t>1.07 (0.84 - 1.38)</t>
+  </si>
+  <si>
+    <t>1.45 (1.02 - 2.07)</t>
+  </si>
+  <si>
+    <t>0.94 (0.78  - 1.14)</t>
+  </si>
+  <si>
+    <t>1.21 (0.96 - 1.52)</t>
+  </si>
+  <si>
+    <t>1.02 (0.99 - 1.05)</t>
+  </si>
+  <si>
+    <t>1.02 (0.99 - 1.06)</t>
+  </si>
+  <si>
+    <t>1.02 (0.97 - 1.07)</t>
+  </si>
+  <si>
+    <t>1.08 (1.01 - 1.15)</t>
+  </si>
+  <si>
+    <t>0.98 (0.94 - 1.01)</t>
+  </si>
+  <si>
+    <t>1.07 (1.01 - 1.13)</t>
+  </si>
+  <si>
+    <t>1.05 (1.00 - 1.09)</t>
+  </si>
+  <si>
+    <t>1.07 (1.02 - 1.11)</t>
+  </si>
+  <si>
+    <t>1.04 (0.97 - 1.10)</t>
+  </si>
+  <si>
+    <t>1.00 (0.96 - 1.03)</t>
+  </si>
+  <si>
+    <t>1.03 (0.98 - 1.08)</t>
+  </si>
+  <si>
+    <t>1.09 (1.04 - 1.15)</t>
+  </si>
+  <si>
+    <t>1.06 (1.01 - 1.10)</t>
+  </si>
+  <si>
+    <t>1.16 (1.10 - 1.23)</t>
+  </si>
+  <si>
+    <t>1.00 (0.94 - 1.06)</t>
+  </si>
+  <si>
+    <t>1.07 (1.00 - 1.14)</t>
+  </si>
+  <si>
+    <t>1.15 (1.10 - 1.22)</t>
+  </si>
+  <si>
+    <t>1.11 (1.05 - 1.17)</t>
   </si>
 </sst>
 </file>
@@ -481,7 +1191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +1201,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,7 +1223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -523,7 +1239,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -545,6 +1260,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -868,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3A7413-4131-4451-95C3-F62128B9AAFB}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection sqref="A1:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
@@ -890,16 +1643,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
@@ -934,16 +1687,16 @@
       <c r="D3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
@@ -958,20 +1711,20 @@
       <c r="D4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="H5" s="11"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
@@ -986,176 +1739,178 @@
       <c r="D6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="H8" s="11"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="7"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="F15" s="18" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1169,147 +1924,149 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="F17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="F20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="F21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>51</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="12" t="s">
         <v>60</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -1317,40 +2074,40 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>53</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="23" t="s">
         <v>128</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>54</v>
@@ -1363,10 +2120,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="76.900000000000006" x14ac:dyDescent="0.45">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="J27" s="17" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="J27" s="16" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1383,6 +2140,1351 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2A9C5E-8065-457A-B0D1-F5EA1BBFC0AA}">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.06640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.46484375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.06640625" style="2"/>
+    <col min="6" max="6" width="22.3984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.06640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.46484375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B5" s="26"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="26"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="8"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B15" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="F15" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J27" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C29" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B30" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15C75A-2FAA-4192-95E2-C7899D95EA36}">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.06640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.46484375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.06640625" style="2"/>
+    <col min="6" max="6" width="22.3984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B5" s="12"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="12"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="8"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B15" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="F15" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="J27" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B15:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53F5B2A-72BC-48DB-B075-46F5B78F74C9}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -1489,13 +3591,13 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1503,13 +3605,13 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1517,13 +3619,13 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1531,13 +3633,13 @@
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>17</v>
       </c>
     </row>

--- a/writing/output_table.xlsx
+++ b/writing/output_table.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Duncan_Lab_2018\NHANES_WeightPerception\NHANES_wt\writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343F383E-FCE1-40AA-A30A-B5DD76383A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="114_{46F66201-AA45-4D74-A00B-83FED43E67CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BDC6A852-912B-44E6-8A6B-1D90168F415F}"/>
   <bookViews>
-    <workbookView xWindow="11213" yWindow="458" windowWidth="10380" windowHeight="12892" activeTab="2" xr2:uid="{64D5762E-E7CA-4964-B70E-AD8288C837C3}"/>
+    <workbookView xWindow="1747" yWindow="1357" windowWidth="18211" windowHeight="12893" activeTab="3" xr2:uid="{64D5762E-E7CA-4964-B70E-AD8288C837C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression_All" sheetId="1" r:id="rId1"/>
     <sheet name="Reg_Male" sheetId="3" r:id="rId2"/>
     <sheet name="Reg_Female" sheetId="4" r:id="rId3"/>
-    <sheet name="Correlations" sheetId="2" r:id="rId4"/>
+    <sheet name="SummaryTable" sheetId="5" r:id="rId4"/>
+    <sheet name="Correlations" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="379">
   <si>
     <t>Like to Weigh Less</t>
   </si>
@@ -1134,6 +1135,45 @@
   </si>
   <si>
     <t>1.11 (1.05 - 1.17)</t>
+  </si>
+  <si>
+    <t>Not sig different</t>
+  </si>
+  <si>
+    <t>Sig different</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Smoking (Former)</t>
+  </si>
+  <si>
+    <t>Smoking (Current)</t>
+  </si>
+  <si>
+    <t>Cannabis Use (Ordinal)</t>
+  </si>
+  <si>
+    <t>Cannabis Use (Ever)</t>
+  </si>
+  <si>
+    <t>Like to Weigh More</t>
+  </si>
+  <si>
+    <t>Consider Weight Too Big</t>
+  </si>
+  <si>
+    <t>Lost Weight Intentionally</t>
+  </si>
+  <si>
+    <t>Lost Weight Unintentionally</t>
+  </si>
+  <si>
+    <t>Tried to Lose Weight</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1210,6 +1250,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1223,7 +1275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1302,7 +1354,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1643,16 +1713,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="F1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
@@ -1891,16 +1961,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="22"/>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="F15" s="31" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="F15" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="20"/>
@@ -2143,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2A9C5E-8065-457A-B0D1-F5EA1BBFC0AA}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="G20" zoomScale="80" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
@@ -2161,11 +2231,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="F1" s="30" t="s">
+        <v>366</v>
+      </c>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -2177,6 +2250,9 @@
       </c>
       <c r="D2" s="18" t="s">
         <v>26</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>367</v>
       </c>
       <c r="J2" s="17"/>
     </row>
@@ -2227,7 +2303,7 @@
       <c r="C6" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="24" t="s">
         <v>234</v>
       </c>
       <c r="I6" s="11"/>
@@ -2243,7 +2319,7 @@
       <c r="C7" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="24" t="s">
         <v>237</v>
       </c>
       <c r="F7" s="16"/>
@@ -2334,16 +2410,16 @@
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="F15" s="31" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="F15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B16" s="18" t="s">
@@ -2663,7 +2739,7 @@
       <c r="G34" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="36" t="s">
         <v>360</v>
       </c>
     </row>
@@ -2686,7 +2762,7 @@
       <c r="G35" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="36" t="s">
         <v>361</v>
       </c>
     </row>
@@ -2802,8 +2878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15C75A-2FAA-4192-95E2-C7899D95EA36}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="D22" zoomScale="81" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
@@ -2820,11 +2896,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -2995,16 +3071,16 @@
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="F15" s="31" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="F15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B16" s="17" t="s">
@@ -3135,7 +3211,7 @@
       <c r="C23" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="31" t="s">
         <v>169</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -3485,6 +3561,461 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918B3E14-A501-451B-9F97-9B8718EA1473}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B2" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="37">
+        <v>3.51</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="37">
+        <v>1.41</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="37">
+        <v>2.11</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="37">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="37">
+        <v>1.77</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7" s="37">
+        <v>3.04</v>
+      </c>
+      <c r="C7" s="37">
+        <v>1.29</v>
+      </c>
+      <c r="D7" s="37">
+        <v>1.75</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="37">
+        <v>1.34</v>
+      </c>
+      <c r="F9" s="37">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="37">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="37">
+        <v>1.24</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="37">
+        <v>0.54</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>378</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="37">
+        <v>1.54</v>
+      </c>
+      <c r="D18" s="37">
+        <v>0.79</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>373</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="37">
+        <v>1.41</v>
+      </c>
+      <c r="D19" s="37">
+        <v>1.33</v>
+      </c>
+      <c r="E19" s="37">
+        <v>1.38</v>
+      </c>
+      <c r="F19" s="37">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>374</v>
+      </c>
+      <c r="B21" s="37">
+        <v>1.43</v>
+      </c>
+      <c r="C21" s="37">
+        <v>1.32</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="37">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="37">
+        <v>2.25</v>
+      </c>
+      <c r="C22" s="37">
+        <v>1.51</v>
+      </c>
+      <c r="D22" s="37">
+        <v>1.61</v>
+      </c>
+      <c r="E22" s="37">
+        <v>1.63</v>
+      </c>
+      <c r="F22" s="37">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>375</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="37">
+        <v>1.28</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>376</v>
+      </c>
+      <c r="B25" s="37">
+        <v>2.38</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="37">
+        <v>1.45</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="37">
+        <v>0.61</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:F27">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53F5B2A-72BC-48DB-B075-46F5B78F74C9}">
   <dimension ref="A1:D17"/>
   <sheetViews>

--- a/writing/output_table.xlsx
+++ b/writing/output_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Duncan_Lab_2018\NHANES_WeightPerception\NHANES_wt\writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="114_{46F66201-AA45-4D74-A00B-83FED43E67CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BDC6A852-912B-44E6-8A6B-1D90168F415F}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="114_{46F66201-AA45-4D74-A00B-83FED43E67CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B990B8A-432F-48A7-9020-19AAD8BD30F5}"/>
   <bookViews>
-    <workbookView xWindow="1747" yWindow="1357" windowWidth="18211" windowHeight="12893" activeTab="3" xr2:uid="{64D5762E-E7CA-4964-B70E-AD8288C837C3}"/>
+    <workbookView xWindow="2655" yWindow="540" windowWidth="18210" windowHeight="12893" activeTab="3" xr2:uid="{64D5762E-E7CA-4964-B70E-AD8288C837C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression_All" sheetId="1" r:id="rId1"/>
@@ -1275,7 +1275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1354,15 +1354,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1373,6 +1364,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1713,16 +1716,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="F1" s="33" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="F1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
@@ -1961,16 +1964,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="22"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="F15" s="33" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="F15" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="20"/>
@@ -2231,11 +2234,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="F1" s="30" t="s">
         <v>366</v>
       </c>
@@ -2251,7 +2254,7 @@
       <c r="D2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="32" t="s">
         <v>367</v>
       </c>
       <c r="J2" s="17"/>
@@ -2410,16 +2413,16 @@
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="F15" s="33" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="F15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B16" s="18" t="s">
@@ -2739,7 +2742,7 @@
       <c r="G34" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="H34" s="36" t="s">
+      <c r="H34" s="33" t="s">
         <v>360</v>
       </c>
     </row>
@@ -2762,7 +2765,7 @@
       <c r="G35" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="H35" s="36" t="s">
+      <c r="H35" s="33" t="s">
         <v>361</v>
       </c>
     </row>
@@ -2896,11 +2899,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -3071,16 +3074,16 @@
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="F15" s="33" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="F15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B16" s="17" t="s">
@@ -3565,7 +3568,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3582,26 +3585,26 @@
       <c r="A1" t="s">
         <v>368</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="34" t="s">
         <v>372</v>
       </c>
     </row>
@@ -3609,19 +3612,19 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="34">
         <v>3.51</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="37">
+      <c r="C3" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="34">
         <v>1.41</v>
       </c>
-      <c r="E3" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="38" t="s">
+      <c r="E3" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3629,46 +3632,46 @@
       <c r="A4" t="s">
         <v>373</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="37">
+      <c r="B4" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="34">
         <v>2.11</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="37">
+      <c r="D4" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="34">
         <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="37">
+      <c r="B6" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="34">
         <v>1.77</v>
       </c>
-      <c r="D6" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="38" t="s">
+      <c r="D6" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="35" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3676,46 +3679,46 @@
       <c r="A7" t="s">
         <v>374</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="34">
         <v>3.04</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="34">
         <v>1.29</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="34">
         <v>1.75</v>
       </c>
-      <c r="E7" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="38" t="s">
+      <c r="E7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>375</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="37">
+      <c r="B9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="34">
         <v>1.34</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="34">
         <v>1.06</v>
       </c>
     </row>
@@ -3723,19 +3726,19 @@
       <c r="A10" t="s">
         <v>376</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>2.2400000000000002</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="37">
+      <c r="C10" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="39">
         <v>1.5</v>
       </c>
-      <c r="E10" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="38" t="s">
+      <c r="E10" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="35" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3743,19 +3746,19 @@
       <c r="A11" t="s">
         <v>377</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="37">
+      <c r="B11" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="34">
         <v>1.24</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="34">
         <v>0.8</v>
       </c>
-      <c r="E11" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="38" t="s">
+      <c r="E11" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="35" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3763,67 +3766,67 @@
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="34">
         <v>0.54</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="38" t="s">
+      <c r="C12" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>378</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="34" t="s">
         <v>372</v>
       </c>
     </row>
@@ -3831,19 +3834,19 @@
       <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="37">
+      <c r="B18" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="34">
         <v>1.54</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="34">
         <v>0.79</v>
       </c>
-      <c r="E18" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="38" t="s">
+      <c r="E18" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="35" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3851,46 +3854,46 @@
       <c r="A19" t="s">
         <v>373</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="37">
+      <c r="B19" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="34">
         <v>1.41</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="34">
         <v>1.33</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="34">
         <v>1.38</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="34">
         <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>374</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="34">
         <v>1.43</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="34">
         <v>1.32</v>
       </c>
-      <c r="D21" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="37">
+      <c r="D21" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="34">
         <v>1.06</v>
       </c>
     </row>
@@ -3898,46 +3901,46 @@
       <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="34">
         <v>2.25</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="34">
         <v>1.51</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="34">
         <v>1.61</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="34">
         <v>1.63</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="34">
         <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>375</v>
       </c>
-      <c r="B24" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="37">
+      <c r="B24" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="34">
         <v>1.28</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="38" t="s">
+      <c r="D24" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="35" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3945,19 +3948,19 @@
       <c r="A25" t="s">
         <v>376</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="34">
         <v>2.38</v>
       </c>
-      <c r="C25" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="37">
+      <c r="C25" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="34">
         <v>1.45</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="35" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3965,19 +3968,19 @@
       <c r="A26" t="s">
         <v>377</v>
       </c>
-      <c r="B26" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="37">
+      <c r="B26" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="39">
         <v>0.6</v>
       </c>
-      <c r="E26" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="38" t="s">
+      <c r="E26" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="35" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3985,33 +3988,49 @@
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="37">
+      <c r="B27" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="34">
         <v>0.61</v>
       </c>
-      <c r="E27" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="38" t="s">
+      <c r="E27" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="35" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:F27">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{C085498E-8CFD-45D3-899B-EECC4660180C}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Arrows" iconId="0"/>
+              <x14:cfIcon iconSet="4Arrows" iconId="2"/>
+              <x14:cfIcon iconSet="3Arrows" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B1:F27</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
